--- a/biology/Médecine/SADDAN/SADDAN.xlsx
+++ b/biology/Médecine/SADDAN/SADDAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>SADDAN est une maladie constitutionnelle de l'os du groupe des achondroplasies se manifestant par un nanisme évident dès la naissance.
 SADDAN est un acronyme pour désigner l'association :
@@ -514,7 +526,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mutation du gène FGFR3 situé au niveau du locus p16.3 du chromosome 4 codant le fibroblast growth factor receptor.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique dominante.
 </t>
@@ -575,9 +591,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:134934 [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:134934 
  Portail de la médecine                     </t>
         </is>
       </c>
